--- a/unkai_date_baseon_Web.xlsx
+++ b/unkai_date_baseon_Web.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\study_share\cloud_Aso\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/Dropbox/study_share/cloud_Aso/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26840" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="写真をもとにしたデータ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,7 +74,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -77,7 +82,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -85,7 +90,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -94,7 +99,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -103,7 +108,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -112,7 +117,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -120,7 +125,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -128,7 +133,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -136,7 +141,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -144,7 +149,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -153,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -162,7 +167,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -170,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -179,7 +184,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -187,7 +192,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -196,7 +201,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -205,7 +210,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -213,14 +218,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -681,6 +686,7 @@
     <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -689,22 +695,21 @@
     <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="計算方法" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,34 +797,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2004</c:v>
+                  <c:v>2004.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2005</c:v>
+                  <c:v>2005.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2006</c:v>
+                  <c:v>2006.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2007</c:v>
+                  <c:v>2007.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2008</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2009</c:v>
+                  <c:v>2009.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2010</c:v>
+                  <c:v>2010.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011</c:v>
+                  <c:v>2011.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2012</c:v>
+                  <c:v>2012.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2013</c:v>
+                  <c:v>2013.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -831,34 +836,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,11 +878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487170352"/>
-        <c:axId val="487171920"/>
+        <c:axId val="-2072044720"/>
+        <c:axId val="-2072552240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="487170352"/>
+        <c:axId val="-2072044720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,12 +939,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487171920"/>
+        <c:crossAx val="-2072552240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487171920"/>
+        <c:axId val="-2072552240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -996,7 +1001,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487170352"/>
+        <c:crossAx val="-2072044720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1059,38 +1064,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1115,358 +1089,358 @@
             <c:numRef>
               <c:f>写真をもとにしたデータ!$D$375:$D$491</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="117"/>
                 <c:pt idx="0">
-                  <c:v>36525</c:v>
+                  <c:v>36525.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36556</c:v>
+                  <c:v>36556.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36585</c:v>
+                  <c:v>36585.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36616</c:v>
+                  <c:v>36616.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36646</c:v>
+                  <c:v>36646.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36677</c:v>
+                  <c:v>36677.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36707</c:v>
+                  <c:v>36707.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36738</c:v>
+                  <c:v>36738.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36769</c:v>
+                  <c:v>36769.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36799</c:v>
+                  <c:v>36799.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36830</c:v>
+                  <c:v>36830.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36860</c:v>
+                  <c:v>36860.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36891</c:v>
+                  <c:v>36891.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36922</c:v>
+                  <c:v>36922.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36950</c:v>
+                  <c:v>36950.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36981</c:v>
+                  <c:v>36981.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37011</c:v>
+                  <c:v>37011.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37042</c:v>
+                  <c:v>37042.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37072</c:v>
+                  <c:v>37072.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37103</c:v>
+                  <c:v>37103.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37134</c:v>
+                  <c:v>37134.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37164</c:v>
+                  <c:v>37164.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37195</c:v>
+                  <c:v>37195.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37225</c:v>
+                  <c:v>37225.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37256</c:v>
+                  <c:v>37256.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37287</c:v>
+                  <c:v>37287.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37315</c:v>
+                  <c:v>37315.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37346</c:v>
+                  <c:v>37346.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37376</c:v>
+                  <c:v>37376.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37407</c:v>
+                  <c:v>37407.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37437</c:v>
+                  <c:v>37437.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37468</c:v>
+                  <c:v>37468.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>37499</c:v>
+                  <c:v>37499.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37529</c:v>
+                  <c:v>37529.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>37560</c:v>
+                  <c:v>37560.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37590</c:v>
+                  <c:v>37590.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>37621</c:v>
+                  <c:v>37621.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37652</c:v>
+                  <c:v>37652.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37680</c:v>
+                  <c:v>37680.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37711</c:v>
+                  <c:v>37711.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37741</c:v>
+                  <c:v>37741.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>37772</c:v>
+                  <c:v>37772.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>37802</c:v>
+                  <c:v>37802.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37833</c:v>
+                  <c:v>37833.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37864</c:v>
+                  <c:v>37864.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37894</c:v>
+                  <c:v>37894.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37925</c:v>
+                  <c:v>37925.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>37955</c:v>
+                  <c:v>37955.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37986</c:v>
+                  <c:v>37986.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38017</c:v>
+                  <c:v>38017.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38046</c:v>
+                  <c:v>38046.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38077</c:v>
+                  <c:v>38077.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38107</c:v>
+                  <c:v>38107.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>38138</c:v>
+                  <c:v>38138.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>38168</c:v>
+                  <c:v>38168.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>38199</c:v>
+                  <c:v>38199.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>38230</c:v>
+                  <c:v>38230.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38260</c:v>
+                  <c:v>38260.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>38291</c:v>
+                  <c:v>38291.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>38321</c:v>
+                  <c:v>38321.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>38352</c:v>
+                  <c:v>38352.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>38383</c:v>
+                  <c:v>38383.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>38411</c:v>
+                  <c:v>38411.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>38442</c:v>
+                  <c:v>38442.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>38472</c:v>
+                  <c:v>38472.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>38503</c:v>
+                  <c:v>38503.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>38533</c:v>
+                  <c:v>38533.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38564</c:v>
+                  <c:v>38564.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>38595</c:v>
+                  <c:v>38595.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>38625</c:v>
+                  <c:v>38625.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>38656</c:v>
+                  <c:v>38656.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>38686</c:v>
+                  <c:v>38686.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>38717</c:v>
+                  <c:v>38717.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>38748</c:v>
+                  <c:v>38748.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>38776</c:v>
+                  <c:v>38776.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>38807</c:v>
+                  <c:v>38807.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>38837</c:v>
+                  <c:v>38837.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>38868</c:v>
+                  <c:v>38868.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>38898</c:v>
+                  <c:v>38898.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>38929</c:v>
+                  <c:v>38929.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>38960</c:v>
+                  <c:v>38960.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>38990</c:v>
+                  <c:v>38990.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>39021</c:v>
+                  <c:v>39021.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>39051</c:v>
+                  <c:v>39051.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>39082</c:v>
+                  <c:v>39082.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>39113</c:v>
+                  <c:v>39113.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>39141</c:v>
+                  <c:v>39141.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>39172</c:v>
+                  <c:v>39172.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>39202</c:v>
+                  <c:v>39202.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>39233</c:v>
+                  <c:v>39233.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>39263</c:v>
+                  <c:v>39263.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>39294</c:v>
+                  <c:v>39294.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>39325</c:v>
+                  <c:v>39325.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>39355</c:v>
+                  <c:v>39355.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>39386</c:v>
+                  <c:v>39386.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>39416</c:v>
+                  <c:v>39416.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>39447</c:v>
+                  <c:v>39447.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>39478</c:v>
+                  <c:v>39478.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>39507</c:v>
+                  <c:v>39507.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>39538</c:v>
+                  <c:v>39538.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>39568</c:v>
+                  <c:v>39568.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>39599</c:v>
+                  <c:v>39599.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>39629</c:v>
+                  <c:v>39629.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>39660</c:v>
+                  <c:v>39660.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>39691</c:v>
+                  <c:v>39691.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>39721</c:v>
+                  <c:v>39721.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>39752</c:v>
+                  <c:v>39752.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>39782</c:v>
+                  <c:v>39782.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>39813</c:v>
+                  <c:v>39813.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>39844</c:v>
+                  <c:v>39844.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>39872</c:v>
+                  <c:v>39872.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>39903</c:v>
+                  <c:v>39903.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>39933</c:v>
+                  <c:v>39933.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>39964</c:v>
+                  <c:v>39964.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>39994</c:v>
+                  <c:v>39994.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>40025</c:v>
+                  <c:v>40025.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>40056</c:v>
+                  <c:v>40056.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,355 +1452,355 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="117"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,11 +1815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452803040"/>
-        <c:axId val="452799904"/>
+        <c:axId val="-2072210000"/>
+        <c:axId val="-2121425920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="452803040"/>
+        <c:axId val="-2072210000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,17 +1829,14 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1873,10 +1844,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1887,7 +1855,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1902,13 +1870,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452799904"/>
+        <c:crossAx val="-2121425920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="365.24"/>
+        <c:majorUnit val="730.48"/>
+        <c:minorUnit val="365.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="452799904"/>
+        <c:axId val="-2121425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,16 +1887,69 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1936,10 +1958,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1950,7 +1969,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1965,14 +1984,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452803040"/>
+        <c:crossAx val="-2072210000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -3274,16 +3295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>465</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>483</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3306,7 +3327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3351,9 +3372,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3386,9 +3407,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3568,22 +3589,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G494"/>
+  <dimension ref="A1:M494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H364" sqref="H364"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="I484" sqref="I484"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3597,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>36965</v>
       </c>
@@ -3626,7 +3647,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36990</v>
       </c>
@@ -3655,7 +3676,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>37018</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>37058</v>
       </c>
@@ -3713,7 +3734,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>37078</v>
       </c>
@@ -3742,7 +3763,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>37086</v>
       </c>
@@ -3771,7 +3792,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>37087</v>
       </c>
@@ -3800,7 +3821,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>37093</v>
       </c>
@@ -3829,7 +3850,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>37110</v>
       </c>
@@ -3858,7 +3879,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>37120</v>
       </c>
@@ -3887,7 +3908,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>37121</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>37131</v>
       </c>
@@ -3945,7 +3966,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>37135</v>
       </c>
@@ -3974,7 +3995,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37142</v>
       </c>
@@ -4003,7 +4024,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>37145</v>
       </c>
@@ -4032,7 +4053,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37150</v>
       </c>
@@ -4061,7 +4082,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>37151</v>
       </c>
@@ -4090,7 +4111,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>37156</v>
       </c>
@@ -4119,7 +4140,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>37165</v>
       </c>
@@ -4148,7 +4169,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>37190</v>
       </c>
@@ -4177,7 +4198,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>37191</v>
       </c>
@@ -4206,7 +4227,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37195</v>
       </c>
@@ -4235,7 +4256,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37198</v>
       </c>
@@ -4264,7 +4285,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37199</v>
       </c>
@@ -4293,7 +4314,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37211</v>
       </c>
@@ -4322,7 +4343,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>37217</v>
       </c>
@@ -4351,7 +4372,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>37219</v>
       </c>
@@ -4380,7 +4401,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37222</v>
       </c>
@@ -4409,7 +4430,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>37225</v>
       </c>
@@ -4438,7 +4459,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>37271</v>
       </c>
@@ -4467,7 +4488,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>37321</v>
       </c>
@@ -4496,7 +4517,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>37322</v>
       </c>
@@ -4525,7 +4546,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>37341</v>
       </c>
@@ -4554,7 +4575,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37352</v>
       </c>
@@ -4583,7 +4604,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>37399</v>
       </c>
@@ -4612,7 +4633,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37406</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37422</v>
       </c>
@@ -4670,7 +4691,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37450</v>
       </c>
@@ -4699,7 +4720,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37451</v>
       </c>
@@ -4728,7 +4749,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>37462</v>
       </c>
@@ -4757,7 +4778,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>37467</v>
       </c>
@@ -4786,7 +4807,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>37469</v>
       </c>
@@ -4815,7 +4836,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>37477</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>37480</v>
       </c>
@@ -4873,7 +4894,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>37481</v>
       </c>
@@ -4902,7 +4923,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>37489</v>
       </c>
@@ -4931,7 +4952,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>37490</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>37491</v>
       </c>
@@ -4989,7 +5010,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>37492</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>37493</v>
       </c>
@@ -5047,7 +5068,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38225</v>
       </c>
@@ -5076,7 +5097,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>37514</v>
       </c>
@@ -5105,7 +5126,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>37525</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>37543</v>
       </c>
@@ -5163,7 +5184,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>37545</v>
       </c>
@@ -5192,7 +5213,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>37546</v>
       </c>
@@ -5221,7 +5242,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>37559</v>
       </c>
@@ -5250,7 +5271,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>37562</v>
       </c>
@@ -5279,7 +5300,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>37563</v>
       </c>
@@ -5308,7 +5329,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>37603</v>
       </c>
@@ -5337,7 +5358,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>37604</v>
       </c>
@@ -5366,7 +5387,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>37605</v>
       </c>
@@ -5395,7 +5416,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>37608</v>
       </c>
@@ -5424,7 +5445,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>37612</v>
       </c>
@@ -5453,7 +5474,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>37613</v>
       </c>
@@ -5482,7 +5503,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>37658</v>
       </c>
@@ -5511,7 +5532,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>37659</v>
       </c>
@@ -5540,7 +5561,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>37683</v>
       </c>
@@ -5569,7 +5590,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>37705</v>
       </c>
@@ -5598,7 +5619,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>37730</v>
       </c>
@@ -5627,7 +5648,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>37748</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>37777</v>
       </c>
@@ -5685,7 +5706,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>37838</v>
       </c>
@@ -5714,7 +5735,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>37847</v>
       </c>
@@ -5743,7 +5764,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>37849</v>
       </c>
@@ -5772,7 +5793,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>37850</v>
       </c>
@@ -5801,7 +5822,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>37856</v>
       </c>
@@ -5830,7 +5851,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>37859</v>
       </c>
@@ -5859,7 +5880,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>37860</v>
       </c>
@@ -5888,7 +5909,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>37868</v>
       </c>
@@ -5917,7 +5938,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>37869</v>
       </c>
@@ -5946,7 +5967,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>37872</v>
       </c>
@@ -5975,7 +5996,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>37888</v>
       </c>
@@ -6004,7 +6025,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>37890</v>
       </c>
@@ -6033,7 +6054,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>37897</v>
       </c>
@@ -6062,7 +6083,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>37905</v>
       </c>
@@ -6091,7 +6112,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>38288</v>
       </c>
@@ -6120,7 +6141,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>37938</v>
       </c>
@@ -6149,7 +6170,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>37939</v>
       </c>
@@ -6178,7 +6199,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>37941</v>
       </c>
@@ -6207,7 +6228,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>37949</v>
       </c>
@@ -6236,7 +6257,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>37989</v>
       </c>
@@ -6265,7 +6286,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>37994</v>
       </c>
@@ -6294,7 +6315,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>38051</v>
       </c>
@@ -6323,7 +6344,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>38056</v>
       </c>
@@ -6352,7 +6373,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>38078</v>
       </c>
@@ -6381,7 +6402,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>38121</v>
       </c>
@@ -6410,7 +6431,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>38132</v>
       </c>
@@ -6439,7 +6460,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>38146</v>
       </c>
@@ -6468,7 +6489,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>38194</v>
       </c>
@@ -6497,7 +6518,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>38212</v>
       </c>
@@ -6526,7 +6547,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>38219</v>
       </c>
@@ -6555,7 +6576,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>38241</v>
       </c>
@@ -6584,7 +6605,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>38249</v>
       </c>
@@ -6613,7 +6634,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>38251</v>
       </c>
@@ -6642,7 +6663,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>38263</v>
       </c>
@@ -6671,7 +6692,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>38265</v>
       </c>
@@ -6700,7 +6721,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>38267</v>
       </c>
@@ -6729,7 +6750,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>38268</v>
       </c>
@@ -6758,7 +6779,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>38269</v>
       </c>
@@ -6787,7 +6808,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>38270</v>
       </c>
@@ -6816,7 +6837,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>38272</v>
       </c>
@@ -6845,7 +6866,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>38274</v>
       </c>
@@ -6874,7 +6895,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>38278</v>
       </c>
@@ -6903,7 +6924,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>38279</v>
       </c>
@@ -6932,7 +6953,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>38280</v>
       </c>
@@ -6961,7 +6982,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>38291</v>
       </c>
@@ -6990,7 +7011,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>38295</v>
       </c>
@@ -7019,7 +7040,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>38304</v>
       </c>
@@ -7048,7 +7069,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>38305</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>38306</v>
       </c>
@@ -7106,7 +7127,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>38312</v>
       </c>
@@ -7135,7 +7156,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>38316</v>
       </c>
@@ -7164,7 +7185,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>38322</v>
       </c>
@@ -7193,7 +7214,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>38323</v>
       </c>
@@ -7222,7 +7243,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>38324</v>
       </c>
@@ -7251,7 +7272,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>38328</v>
       </c>
@@ -7280,7 +7301,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>38330</v>
       </c>
@@ -7309,7 +7330,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>38332</v>
       </c>
@@ -7338,7 +7359,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>38333</v>
       </c>
@@ -7367,7 +7388,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>38337</v>
       </c>
@@ -7396,7 +7417,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>38389</v>
       </c>
@@ -7425,7 +7446,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>38391</v>
       </c>
@@ -7454,7 +7475,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>38420</v>
       </c>
@@ -7483,7 +7504,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>38447</v>
       </c>
@@ -7512,7 +7533,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>38469</v>
       </c>
@@ -7541,7 +7562,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>38494</v>
       </c>
@@ -7570,7 +7591,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>38510</v>
       </c>
@@ -7599,7 +7620,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>38527</v>
       </c>
@@ -7628,7 +7649,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>38538</v>
       </c>
@@ -7657,7 +7678,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>38591</v>
       </c>
@@ -7686,7 +7707,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>38625</v>
       </c>
@@ -7715,7 +7736,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>38627</v>
       </c>
@@ -7744,7 +7765,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>38635</v>
       </c>
@@ -7773,7 +7794,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>38639</v>
       </c>
@@ -7802,7 +7823,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>38640</v>
       </c>
@@ -7831,7 +7852,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>38647</v>
       </c>
@@ -7860,7 +7881,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>38651</v>
       </c>
@@ -7889,7 +7910,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>38652</v>
       </c>
@@ -7918,7 +7939,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>38653</v>
       </c>
@@ -7947,7 +7968,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>38654</v>
       </c>
@@ -7976,7 +7997,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>38662</v>
       </c>
@@ -8005,7 +8026,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>38663</v>
       </c>
@@ -8034,7 +8055,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>38678</v>
       </c>
@@ -8063,7 +8084,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>38680</v>
       </c>
@@ -8092,7 +8113,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>38681</v>
       </c>
@@ -8121,7 +8142,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>38686</v>
       </c>
@@ -8150,7 +8171,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>38709</v>
       </c>
@@ -8179,7 +8200,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>38733</v>
       </c>
@@ -8208,7 +8229,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>38771</v>
       </c>
@@ -8237,7 +8258,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>38840</v>
       </c>
@@ -8266,7 +8287,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>38858</v>
       </c>
@@ -8295,7 +8316,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>38922</v>
       </c>
@@ -8324,7 +8345,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>38923</v>
       </c>
@@ -8353,7 +8374,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>38951</v>
       </c>
@@ -8382,7 +8403,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>38953</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>38973</v>
       </c>
@@ -8440,7 +8461,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>38978</v>
       </c>
@@ -8469,7 +8490,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>38979</v>
       </c>
@@ -8498,7 +8519,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>38992</v>
       </c>
@@ -8527,7 +8548,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>38995</v>
       </c>
@@ -8556,7 +8577,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>38996</v>
       </c>
@@ -8585,7 +8606,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>39000</v>
       </c>
@@ -8614,7 +8635,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>39003</v>
       </c>
@@ -8643,7 +8664,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>39025</v>
       </c>
@@ -8672,7 +8693,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>39033</v>
       </c>
@@ -8701,7 +8722,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>39034</v>
       </c>
@@ -8730,7 +8751,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>39037</v>
       </c>
@@ -8759,7 +8780,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>39039</v>
       </c>
@@ -8788,7 +8809,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>39041</v>
       </c>
@@ -8817,7 +8838,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>39045</v>
       </c>
@@ -8846,7 +8867,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>39049</v>
       </c>
@@ -8875,7 +8896,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>39185</v>
       </c>
@@ -8904,7 +8925,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>39205</v>
       </c>
@@ -8933,7 +8954,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>39219</v>
       </c>
@@ -8962,7 +8983,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>39222</v>
       </c>
@@ -8991,7 +9012,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>39238</v>
       </c>
@@ -9020,7 +9041,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>39241</v>
       </c>
@@ -9049,7 +9070,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>39277</v>
       </c>
@@ -9078,7 +9099,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>39278</v>
       </c>
@@ -9107,7 +9128,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>39288</v>
       </c>
@@ -9136,7 +9157,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>39290</v>
       </c>
@@ -9165,7 +9186,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>39293</v>
       </c>
@@ -9194,7 +9215,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>39294</v>
       </c>
@@ -9223,7 +9244,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>39302</v>
       </c>
@@ -9252,7 +9273,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>39316</v>
       </c>
@@ -9281,7 +9302,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>39317</v>
       </c>
@@ -9310,7 +9331,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>39331</v>
       </c>
@@ -9339,7 +9360,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>39332</v>
       </c>
@@ -9368,7 +9389,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>39360</v>
       </c>
@@ -9397,7 +9418,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>39362</v>
       </c>
@@ -9426,7 +9447,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>39363</v>
       </c>
@@ -9455,7 +9476,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>39364</v>
       </c>
@@ -9484,7 +9505,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>39366</v>
       </c>
@@ -9513,7 +9534,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>39372</v>
       </c>
@@ -9542,7 +9563,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>39378</v>
       </c>
@@ -9571,7 +9592,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>39386</v>
       </c>
@@ -9600,7 +9621,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>39391</v>
       </c>
@@ -9629,7 +9650,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>39397</v>
       </c>
@@ -9658,7 +9679,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>39399</v>
       </c>
@@ -9687,7 +9708,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>39412</v>
       </c>
@@ -9716,7 +9737,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>39414</v>
       </c>
@@ -9745,7 +9766,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>39415</v>
       </c>
@@ -9774,7 +9795,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>39389</v>
       </c>
@@ -9803,7 +9824,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>39420</v>
       </c>
@@ -9832,7 +9853,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>39422</v>
       </c>
@@ -9861,7 +9882,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>39427</v>
       </c>
@@ -9890,7 +9911,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>39428</v>
       </c>
@@ -9919,7 +9940,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>39429</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>39520</v>
       </c>
@@ -9977,7 +9998,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>39547</v>
       </c>
@@ -10006,7 +10027,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>39549</v>
       </c>
@@ -10035,7 +10056,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>39554</v>
       </c>
@@ -10064,7 +10085,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>39555</v>
       </c>
@@ -10093,7 +10114,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>39556</v>
       </c>
@@ -10122,7 +10143,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>39561</v>
       </c>
@@ -10151,7 +10172,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>39569</v>
       </c>
@@ -10180,7 +10201,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>39583</v>
       </c>
@@ -10209,7 +10230,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>39593</v>
       </c>
@@ -10238,7 +10259,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>39594</v>
       </c>
@@ -10267,7 +10288,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>39599</v>
       </c>
@@ -10296,7 +10317,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>39604</v>
       </c>
@@ -10325,7 +10346,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>39605</v>
       </c>
@@ -10354,7 +10375,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>39612</v>
       </c>
@@ -10383,7 +10404,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>39627</v>
       </c>
@@ -10412,7 +10433,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>39637</v>
       </c>
@@ -10441,7 +10462,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>39638</v>
       </c>
@@ -10470,7 +10491,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>39652</v>
       </c>
@@ -10499,7 +10520,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>39653</v>
       </c>
@@ -10528,7 +10549,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>39657</v>
       </c>
@@ -10557,7 +10578,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>39658</v>
       </c>
@@ -10586,7 +10607,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>39669</v>
       </c>
@@ -10615,7 +10636,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>39671</v>
       </c>
@@ -10644,7 +10665,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>39674</v>
       </c>
@@ -10673,7 +10694,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>39676</v>
       </c>
@@ -10702,7 +10723,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>39677</v>
       </c>
@@ -10731,7 +10752,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>39688</v>
       </c>
@@ -10760,7 +10781,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>39689</v>
       </c>
@@ -10789,7 +10810,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>39694</v>
       </c>
@@ -10818,7 +10839,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>39695</v>
       </c>
@@ -10847,7 +10868,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>39696</v>
       </c>
@@ -10876,7 +10897,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>39697</v>
       </c>
@@ -10905,7 +10926,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>39699</v>
       </c>
@@ -10934,7 +10955,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>39703</v>
       </c>
@@ -10963,7 +10984,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>39704</v>
       </c>
@@ -10992,7 +11013,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>39705</v>
       </c>
@@ -11021,7 +11042,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>39711</v>
       </c>
@@ -11050,7 +11071,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>39712</v>
       </c>
@@ -11079,7 +11100,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>39718</v>
       </c>
@@ -11108,7 +11129,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>39723</v>
       </c>
@@ -11137,7 +11158,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>39728</v>
       </c>
@@ -11166,7 +11187,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>39730</v>
       </c>
@@ -11195,7 +11216,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>39731</v>
       </c>
@@ -11224,7 +11245,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>39732</v>
       </c>
@@ -11253,7 +11274,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>39735</v>
       </c>
@@ -11282,7 +11303,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>39741</v>
       </c>
@@ -11311,7 +11332,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>39744</v>
       </c>
@@ -11340,7 +11361,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>39747</v>
       </c>
@@ -11369,7 +11390,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>39749</v>
       </c>
@@ -11398,7 +11419,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>39754</v>
       </c>
@@ -11427,7 +11448,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>39767</v>
       </c>
@@ -11456,7 +11477,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>39776</v>
       </c>
@@ -11485,7 +11506,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>39781</v>
       </c>
@@ -11514,7 +11535,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>39794</v>
       </c>
@@ -11543,7 +11564,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>39798</v>
       </c>
@@ -11572,7 +11593,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>39893</v>
       </c>
@@ -11601,7 +11622,7 @@
         <v>3368</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>39900</v>
       </c>
@@ -11630,7 +11651,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>39903</v>
       </c>
@@ -11659,7 +11680,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>39906</v>
       </c>
@@ -11688,7 +11709,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>39920</v>
       </c>
@@ -11717,7 +11738,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>39927</v>
       </c>
@@ -11746,7 +11767,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>39933</v>
       </c>
@@ -11775,7 +11796,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>39934</v>
       </c>
@@ -11804,7 +11825,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>39941</v>
       </c>
@@ -11833,7 +11854,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>39944</v>
       </c>
@@ -11862,7 +11883,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>39952</v>
       </c>
@@ -11891,7 +11912,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>39953</v>
       </c>
@@ -11920,7 +11941,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>39954</v>
       </c>
@@ -11949,7 +11970,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>39955</v>
       </c>
@@ -11978,7 +11999,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>39963</v>
       </c>
@@ -12007,7 +12028,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>39967</v>
       </c>
@@ -12036,7 +12057,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>39968</v>
       </c>
@@ -12065,7 +12086,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>39971</v>
       </c>
@@ -12094,7 +12115,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>39975</v>
       </c>
@@ -12123,7 +12144,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>39977</v>
       </c>
@@ -12152,7 +12173,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>39980</v>
       </c>
@@ -12181,7 +12202,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>39985</v>
       </c>
@@ -12210,7 +12231,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>39995</v>
       </c>
@@ -12239,7 +12260,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>40003</v>
       </c>
@@ -12268,7 +12289,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>40005</v>
       </c>
@@ -12297,7 +12318,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>40006</v>
       </c>
@@ -12326,7 +12347,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>40008</v>
       </c>
@@ -12355,7 +12376,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>40009</v>
       </c>
@@ -12384,7 +12405,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>40012</v>
       </c>
@@ -12413,7 +12434,7 @@
         <v>3487</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>40013</v>
       </c>
@@ -12442,7 +12463,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>40014</v>
       </c>
@@ -12471,7 +12492,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>40015</v>
       </c>
@@ -12500,7 +12521,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>40027</v>
       </c>
@@ -12529,7 +12550,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>40034</v>
       </c>
@@ -12558,7 +12579,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>40036</v>
       </c>
@@ -12587,7 +12608,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>40037</v>
       </c>
@@ -12616,7 +12637,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>40038</v>
       </c>
@@ -12645,7 +12666,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>40039</v>
       </c>
@@ -12674,7 +12695,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>40040</v>
       </c>
@@ -12703,7 +12724,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>40041</v>
       </c>
@@ -12732,7 +12753,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>40046</v>
       </c>
@@ -12761,7 +12782,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>40051</v>
       </c>
@@ -12790,7 +12811,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>40052</v>
       </c>
@@ -12819,7 +12840,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>40058</v>
       </c>
@@ -12848,7 +12869,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36573</v>
       </c>
@@ -12877,7 +12898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>36576</v>
       </c>
@@ -12906,7 +12927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>36657</v>
       </c>
@@ -12927,15 +12948,15 @@
         <v>200405</v>
       </c>
       <c r="F323">
-        <f>_xlfn.DAYS(A323,B323)</f>
+        <f t="shared" ref="F323:F357" si="34">_xlfn.DAYS(A323,B323)</f>
         <v>132</v>
       </c>
       <c r="G323">
-        <f>_xlfn.DAYS(A323,DATE(2004,1,1))</f>
+        <f t="shared" ref="G323:G357" si="35">_xlfn.DAYS(A323,DATE(2004,1,1))</f>
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>36707</v>
       </c>
@@ -12956,15 +12977,15 @@
         <v>200407</v>
       </c>
       <c r="F324">
-        <f>_xlfn.DAYS(A324,B324)</f>
+        <f t="shared" si="34"/>
         <v>182</v>
       </c>
       <c r="G324">
-        <f>_xlfn.DAYS(A324,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>182</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>36735</v>
       </c>
@@ -12985,15 +13006,15 @@
         <v>200407</v>
       </c>
       <c r="F325">
-        <f>_xlfn.DAYS(A325,B325)</f>
+        <f t="shared" si="34"/>
         <v>210</v>
       </c>
       <c r="G325">
-        <f>_xlfn.DAYS(A325,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>210</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>36743</v>
       </c>
@@ -13014,15 +13035,15 @@
         <v>200408</v>
       </c>
       <c r="F326">
-        <f>_xlfn.DAYS(A326,B326)</f>
+        <f t="shared" si="34"/>
         <v>218</v>
       </c>
       <c r="G326">
-        <f>_xlfn.DAYS(A326,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>218</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>36745</v>
       </c>
@@ -13043,15 +13064,15 @@
         <v>200408</v>
       </c>
       <c r="F327">
-        <f>_xlfn.DAYS(A327,B327)</f>
+        <f t="shared" si="34"/>
         <v>220</v>
       </c>
       <c r="G327">
-        <f>_xlfn.DAYS(A327,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>220</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>36746</v>
       </c>
@@ -13072,15 +13093,15 @@
         <v>200408</v>
       </c>
       <c r="F328">
-        <f>_xlfn.DAYS(A328,B328)</f>
+        <f t="shared" si="34"/>
         <v>221</v>
       </c>
       <c r="G328">
-        <f>_xlfn.DAYS(A328,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>221</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>36747</v>
       </c>
@@ -13101,15 +13122,15 @@
         <v>200408</v>
       </c>
       <c r="F329">
-        <f>_xlfn.DAYS(A329,B329)</f>
+        <f t="shared" si="34"/>
         <v>222</v>
       </c>
       <c r="G329">
-        <f>_xlfn.DAYS(A329,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>222</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>36759</v>
       </c>
@@ -13130,15 +13151,15 @@
         <v>200408</v>
       </c>
       <c r="F330">
-        <f>_xlfn.DAYS(A330,B330)</f>
+        <f t="shared" si="34"/>
         <v>234</v>
       </c>
       <c r="G330">
-        <f>_xlfn.DAYS(A330,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>234</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>36761</v>
       </c>
@@ -13159,15 +13180,15 @@
         <v>200408</v>
       </c>
       <c r="F331">
-        <f>_xlfn.DAYS(A331,B331)</f>
+        <f t="shared" si="34"/>
         <v>236</v>
       </c>
       <c r="G331">
-        <f>_xlfn.DAYS(A331,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>236</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>36763</v>
       </c>
@@ -13188,15 +13209,15 @@
         <v>200408</v>
       </c>
       <c r="F332">
-        <f>_xlfn.DAYS(A332,B332)</f>
+        <f t="shared" si="34"/>
         <v>238</v>
       </c>
       <c r="G332">
-        <f>_xlfn.DAYS(A332,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>238</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>36771</v>
       </c>
@@ -13217,15 +13238,15 @@
         <v>200409</v>
       </c>
       <c r="F333">
-        <f>_xlfn.DAYS(A333,B333)</f>
+        <f t="shared" si="34"/>
         <v>246</v>
       </c>
       <c r="G333">
-        <f>_xlfn.DAYS(A333,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>246</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>36782</v>
       </c>
@@ -13246,15 +13267,15 @@
         <v>200409</v>
       </c>
       <c r="F334">
-        <f>_xlfn.DAYS(A334,B334)</f>
+        <f t="shared" si="34"/>
         <v>257</v>
       </c>
       <c r="G334">
-        <f>_xlfn.DAYS(A334,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>257</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>36783</v>
       </c>
@@ -13275,15 +13296,15 @@
         <v>200409</v>
       </c>
       <c r="F335">
-        <f>_xlfn.DAYS(A335,B335)</f>
+        <f t="shared" si="34"/>
         <v>258</v>
       </c>
       <c r="G335">
-        <f>_xlfn.DAYS(A335,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>258</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>36785</v>
       </c>
@@ -13304,15 +13325,15 @@
         <v>200409</v>
       </c>
       <c r="F336">
-        <f>_xlfn.DAYS(A336,B336)</f>
+        <f t="shared" si="34"/>
         <v>260</v>
       </c>
       <c r="G336">
-        <f>_xlfn.DAYS(A336,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>260</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>36795</v>
       </c>
@@ -13333,15 +13354,15 @@
         <v>200409</v>
       </c>
       <c r="F337">
-        <f>_xlfn.DAYS(A337,B337)</f>
+        <f t="shared" si="34"/>
         <v>270</v>
       </c>
       <c r="G337">
-        <f>_xlfn.DAYS(A337,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>270</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>36799</v>
       </c>
@@ -13362,15 +13383,15 @@
         <v>200410</v>
       </c>
       <c r="F338">
-        <f>_xlfn.DAYS(A338,B338)</f>
+        <f t="shared" si="34"/>
         <v>274</v>
       </c>
       <c r="G338">
-        <f>_xlfn.DAYS(A338,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>274</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>36800</v>
       </c>
@@ -13391,15 +13412,15 @@
         <v>200410</v>
       </c>
       <c r="F339">
-        <f>_xlfn.DAYS(A339,B339)</f>
+        <f t="shared" si="34"/>
         <v>275</v>
       </c>
       <c r="G339">
-        <f>_xlfn.DAYS(A339,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>275</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>36810</v>
       </c>
@@ -13420,15 +13441,15 @@
         <v>200410</v>
       </c>
       <c r="F340">
-        <f>_xlfn.DAYS(A340,B340)</f>
+        <f t="shared" si="34"/>
         <v>285</v>
       </c>
       <c r="G340">
-        <f>_xlfn.DAYS(A340,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>285</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>36812</v>
       </c>
@@ -13449,15 +13470,15 @@
         <v>200410</v>
       </c>
       <c r="F341">
-        <f>_xlfn.DAYS(A341,B341)</f>
+        <f t="shared" si="34"/>
         <v>287</v>
       </c>
       <c r="G341">
-        <f>_xlfn.DAYS(A341,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>287</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>36820</v>
       </c>
@@ -13478,15 +13499,15 @@
         <v>200410</v>
       </c>
       <c r="F342">
-        <f>_xlfn.DAYS(A342,B342)</f>
+        <f t="shared" si="34"/>
         <v>295</v>
       </c>
       <c r="G342">
-        <f>_xlfn.DAYS(A342,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>295</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>36833</v>
       </c>
@@ -13507,15 +13528,15 @@
         <v>200411</v>
       </c>
       <c r="F343">
-        <f>_xlfn.DAYS(A343,B343)</f>
+        <f t="shared" si="34"/>
         <v>308</v>
       </c>
       <c r="G343">
-        <f>_xlfn.DAYS(A343,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>308</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>36834</v>
       </c>
@@ -13536,15 +13557,15 @@
         <v>200411</v>
       </c>
       <c r="F344">
-        <f>_xlfn.DAYS(A344,B344)</f>
+        <f t="shared" si="34"/>
         <v>309</v>
       </c>
       <c r="G344">
-        <f>_xlfn.DAYS(A344,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>309</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>36835</v>
       </c>
@@ -13565,15 +13586,15 @@
         <v>200411</v>
       </c>
       <c r="F345">
-        <f>_xlfn.DAYS(A345,B345)</f>
+        <f t="shared" si="34"/>
         <v>310</v>
       </c>
       <c r="G345">
-        <f>_xlfn.DAYS(A345,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>310</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>36836</v>
       </c>
@@ -13594,15 +13615,15 @@
         <v>200411</v>
       </c>
       <c r="F346">
-        <f>_xlfn.DAYS(A346,B346)</f>
+        <f t="shared" si="34"/>
         <v>311</v>
       </c>
       <c r="G346">
-        <f>_xlfn.DAYS(A346,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>311</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>36837</v>
       </c>
@@ -13623,15 +13644,15 @@
         <v>200411</v>
       </c>
       <c r="F347">
-        <f>_xlfn.DAYS(A347,B347)</f>
+        <f t="shared" si="34"/>
         <v>312</v>
       </c>
       <c r="G347">
-        <f>_xlfn.DAYS(A347,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>312</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>36838</v>
       </c>
@@ -13652,15 +13673,15 @@
         <v>200411</v>
       </c>
       <c r="F348">
-        <f>_xlfn.DAYS(A348,B348)</f>
+        <f t="shared" si="34"/>
         <v>313</v>
       </c>
       <c r="G348">
-        <f>_xlfn.DAYS(A348,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>313</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>36849</v>
       </c>
@@ -13681,15 +13702,15 @@
         <v>200411</v>
       </c>
       <c r="F349">
-        <f>_xlfn.DAYS(A349,B349)</f>
+        <f t="shared" si="34"/>
         <v>324</v>
       </c>
       <c r="G349">
-        <f>_xlfn.DAYS(A349,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>324</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>36852</v>
       </c>
@@ -13710,15 +13731,15 @@
         <v>200411</v>
       </c>
       <c r="F350">
-        <f>_xlfn.DAYS(A350,B350)</f>
+        <f t="shared" si="34"/>
         <v>327</v>
       </c>
       <c r="G350">
-        <f>_xlfn.DAYS(A350,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>327</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>36853</v>
       </c>
@@ -13739,15 +13760,15 @@
         <v>200411</v>
       </c>
       <c r="F351">
-        <f>_xlfn.DAYS(A351,B351)</f>
+        <f t="shared" si="34"/>
         <v>328</v>
       </c>
       <c r="G351">
-        <f>_xlfn.DAYS(A351,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>328</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>36859</v>
       </c>
@@ -13768,15 +13789,15 @@
         <v>200411</v>
       </c>
       <c r="F352">
-        <f>_xlfn.DAYS(A352,B352)</f>
+        <f t="shared" si="34"/>
         <v>334</v>
       </c>
       <c r="G352">
-        <f>_xlfn.DAYS(A352,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>334</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>36867</v>
       </c>
@@ -13797,15 +13818,15 @@
         <v>200412</v>
       </c>
       <c r="F353">
-        <f>_xlfn.DAYS(A353,B353)</f>
+        <f t="shared" si="34"/>
         <v>342</v>
       </c>
       <c r="G353">
-        <f>_xlfn.DAYS(A353,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>342</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>36869</v>
       </c>
@@ -13826,15 +13847,15 @@
         <v>200412</v>
       </c>
       <c r="F354">
-        <f>_xlfn.DAYS(A354,B354)</f>
+        <f t="shared" si="34"/>
         <v>344</v>
       </c>
       <c r="G354">
-        <f>_xlfn.DAYS(A354,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>344</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>36871</v>
       </c>
@@ -13855,15 +13876,15 @@
         <v>200412</v>
       </c>
       <c r="F355">
-        <f>_xlfn.DAYS(A355,B355)</f>
+        <f t="shared" si="34"/>
         <v>346</v>
       </c>
       <c r="G355">
-        <f>_xlfn.DAYS(A355,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>346</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>36873</v>
       </c>
@@ -13884,15 +13905,15 @@
         <v>200412</v>
       </c>
       <c r="F356">
-        <f>_xlfn.DAYS(A356,B356)</f>
+        <f t="shared" si="34"/>
         <v>348</v>
       </c>
       <c r="G356">
-        <f>_xlfn.DAYS(A356,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>348</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>36879</v>
       </c>
@@ -13913,15 +13934,15 @@
         <v>200412</v>
       </c>
       <c r="F357">
-        <f>_xlfn.DAYS(A357,B357)</f>
+        <f t="shared" si="34"/>
         <v>354</v>
       </c>
       <c r="G357">
-        <f>_xlfn.DAYS(A357,DATE(2004,1,1))</f>
+        <f t="shared" si="35"/>
         <v>354</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2004</v>
       </c>
@@ -13930,106 +13951,106 @@
         <v>37</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2005</v>
       </c>
       <c r="B362">
-        <f t="shared" ref="B362:B372" si="34">COUNTIF($C$2:$C$357,A362)</f>
+        <f t="shared" ref="B362:B372" si="36">COUNTIF($C$2:$C$357,A362)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2006</v>
       </c>
       <c r="B363">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2007</v>
       </c>
       <c r="B364">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2008</v>
       </c>
       <c r="B365">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2009</v>
       </c>
       <c r="B366">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2010</v>
       </c>
       <c r="B367">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2011</v>
       </c>
       <c r="B368">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>37</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2012</v>
       </c>
       <c r="B369">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>56</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2013</v>
       </c>
       <c r="B370">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>44</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2014</v>
       </c>
       <c r="B371">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2015</v>
       </c>
       <c r="B372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2004</v>
       </c>
@@ -14045,11 +14066,11 @@
         <v>36525</v>
       </c>
       <c r="E375">
-        <f>COUNTIF($E$2:$E$357,C375)</f>
+        <f t="shared" ref="E375:E406" si="37">COUNTIF($E$2:$E$357,C375)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2004</v>
       </c>
@@ -14057,19 +14078,19 @@
         <v>2</v>
       </c>
       <c r="C376">
-        <f t="shared" ref="C376:C439" si="35">A376*100+B376</f>
+        <f t="shared" ref="C376:C439" si="38">A376*100+B376</f>
         <v>200402</v>
       </c>
       <c r="D376" s="1">
-        <f t="shared" ref="D376:D439" si="36">DATE(A376,B376,1)</f>
+        <f t="shared" ref="D376:D439" si="39">DATE(A376,B376,1)</f>
         <v>36556</v>
       </c>
       <c r="E376">
-        <f>COUNTIF($E$2:$E$357,C376)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2004</v>
       </c>
@@ -14077,19 +14098,19 @@
         <v>3</v>
       </c>
       <c r="C377">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200403</v>
       </c>
       <c r="D377" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36585</v>
       </c>
       <c r="E377">
-        <f>COUNTIF($E$2:$E$357,C377)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2004</v>
       </c>
@@ -14097,19 +14118,19 @@
         <v>4</v>
       </c>
       <c r="C378">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200404</v>
       </c>
       <c r="D378" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36616</v>
       </c>
       <c r="E378">
-        <f>COUNTIF($E$2:$E$357,C378)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2004</v>
       </c>
@@ -14117,19 +14138,19 @@
         <v>5</v>
       </c>
       <c r="C379">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200405</v>
       </c>
       <c r="D379" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36646</v>
       </c>
       <c r="E379">
-        <f>COUNTIF($E$2:$E$357,C379)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2004</v>
       </c>
@@ -14137,19 +14158,19 @@
         <v>6</v>
       </c>
       <c r="C380">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200406</v>
       </c>
       <c r="D380" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36677</v>
       </c>
       <c r="E380">
-        <f>COUNTIF($E$2:$E$357,C380)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2004</v>
       </c>
@@ -14157,19 +14178,19 @@
         <v>7</v>
       </c>
       <c r="C381">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200407</v>
       </c>
       <c r="D381" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36707</v>
       </c>
       <c r="E381">
-        <f>COUNTIF($E$2:$E$357,C381)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2004</v>
       </c>
@@ -14177,19 +14198,19 @@
         <v>8</v>
       </c>
       <c r="C382">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200408</v>
       </c>
       <c r="D382" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36738</v>
       </c>
       <c r="E382">
-        <f>COUNTIF($E$2:$E$357,C382)</f>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2004</v>
       </c>
@@ -14197,19 +14218,19 @@
         <v>9</v>
       </c>
       <c r="C383">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200409</v>
       </c>
       <c r="D383" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36769</v>
       </c>
       <c r="E383">
-        <f>COUNTIF($E$2:$E$357,C383)</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2004</v>
       </c>
@@ -14217,19 +14238,19 @@
         <v>10</v>
       </c>
       <c r="C384">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200410</v>
       </c>
       <c r="D384" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36799</v>
       </c>
       <c r="E384">
-        <f>COUNTIF($E$2:$E$357,C384)</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2004</v>
       </c>
@@ -14237,19 +14258,19 @@
         <v>11</v>
       </c>
       <c r="C385">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200411</v>
       </c>
       <c r="D385" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36830</v>
       </c>
       <c r="E385">
-        <f>COUNTIF($E$2:$E$357,C385)</f>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2004</v>
       </c>
@@ -14257,19 +14278,19 @@
         <v>12</v>
       </c>
       <c r="C386">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200412</v>
       </c>
       <c r="D386" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36860</v>
       </c>
       <c r="E386">
-        <f>COUNTIF($E$2:$E$357,C386)</f>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2005</v>
       </c>
@@ -14277,19 +14298,19 @@
         <v>1</v>
       </c>
       <c r="C387">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200501</v>
       </c>
       <c r="D387" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36891</v>
       </c>
       <c r="E387">
-        <f>COUNTIF($E$2:$E$357,C387)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2005</v>
       </c>
@@ -14297,19 +14318,19 @@
         <v>2</v>
       </c>
       <c r="C388">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200502</v>
       </c>
       <c r="D388" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36922</v>
       </c>
       <c r="E388">
-        <f>COUNTIF($E$2:$E$357,C388)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2005</v>
       </c>
@@ -14317,19 +14338,19 @@
         <v>3</v>
       </c>
       <c r="C389">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200503</v>
       </c>
       <c r="D389" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36950</v>
       </c>
       <c r="E389">
-        <f>COUNTIF($E$2:$E$357,C389)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2005</v>
       </c>
@@ -14337,19 +14358,19 @@
         <v>4</v>
       </c>
       <c r="C390">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200504</v>
       </c>
       <c r="D390" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>36981</v>
       </c>
       <c r="E390">
-        <f>COUNTIF($E$2:$E$357,C390)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2005</v>
       </c>
@@ -14357,19 +14378,19 @@
         <v>5</v>
       </c>
       <c r="C391">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200505</v>
       </c>
       <c r="D391" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37011</v>
       </c>
       <c r="E391">
-        <f>COUNTIF($E$2:$E$357,C391)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2005</v>
       </c>
@@ -14377,19 +14398,19 @@
         <v>6</v>
       </c>
       <c r="C392">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200506</v>
       </c>
       <c r="D392" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37042</v>
       </c>
       <c r="E392">
-        <f>COUNTIF($E$2:$E$357,C392)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2005</v>
       </c>
@@ -14397,19 +14418,19 @@
         <v>7</v>
       </c>
       <c r="C393">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200507</v>
       </c>
       <c r="D393" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37072</v>
       </c>
       <c r="E393">
-        <f>COUNTIF($E$2:$E$357,C393)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2005</v>
       </c>
@@ -14417,19 +14438,19 @@
         <v>8</v>
       </c>
       <c r="C394">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200508</v>
       </c>
       <c r="D394" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37103</v>
       </c>
       <c r="E394">
-        <f>COUNTIF($E$2:$E$357,C394)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2005</v>
       </c>
@@ -14437,19 +14458,19 @@
         <v>9</v>
       </c>
       <c r="C395">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200509</v>
       </c>
       <c r="D395" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37134</v>
       </c>
       <c r="E395">
-        <f>COUNTIF($E$2:$E$357,C395)</f>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2005</v>
       </c>
@@ -14457,19 +14478,19 @@
         <v>10</v>
       </c>
       <c r="C396">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200510</v>
       </c>
       <c r="D396" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37164</v>
       </c>
       <c r="E396">
-        <f>COUNTIF($E$2:$E$357,C396)</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2005</v>
       </c>
@@ -14477,19 +14498,19 @@
         <v>11</v>
       </c>
       <c r="C397">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200511</v>
       </c>
       <c r="D397" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37195</v>
       </c>
       <c r="E397">
-        <f>COUNTIF($E$2:$E$357,C397)</f>
+        <f t="shared" si="37"/>
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2005</v>
       </c>
@@ -14497,19 +14518,19 @@
         <v>12</v>
       </c>
       <c r="C398">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200512</v>
       </c>
       <c r="D398" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37225</v>
       </c>
       <c r="E398">
-        <f>COUNTIF($E$2:$E$357,C398)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2006</v>
       </c>
@@ -14517,19 +14538,19 @@
         <v>1</v>
       </c>
       <c r="C399">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200601</v>
       </c>
       <c r="D399" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37256</v>
       </c>
       <c r="E399">
-        <f>COUNTIF($E$2:$E$357,C399)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2006</v>
       </c>
@@ -14537,19 +14558,19 @@
         <v>2</v>
       </c>
       <c r="C400">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200602</v>
       </c>
       <c r="D400" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37287</v>
       </c>
       <c r="E400">
-        <f>COUNTIF($E$2:$E$357,C400)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2006</v>
       </c>
@@ -14557,19 +14578,19 @@
         <v>3</v>
       </c>
       <c r="C401">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200603</v>
       </c>
       <c r="D401" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37315</v>
       </c>
       <c r="E401">
-        <f>COUNTIF($E$2:$E$357,C401)</f>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2006</v>
       </c>
@@ -14577,19 +14598,19 @@
         <v>4</v>
       </c>
       <c r="C402">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200604</v>
       </c>
       <c r="D402" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37346</v>
       </c>
       <c r="E402">
-        <f>COUNTIF($E$2:$E$357,C402)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2006</v>
       </c>
@@ -14597,19 +14618,19 @@
         <v>5</v>
       </c>
       <c r="C403">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200605</v>
       </c>
       <c r="D403" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37376</v>
       </c>
       <c r="E403">
-        <f>COUNTIF($E$2:$E$357,C403)</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2006</v>
       </c>
@@ -14617,19 +14638,19 @@
         <v>6</v>
       </c>
       <c r="C404">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200606</v>
       </c>
       <c r="D404" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37407</v>
       </c>
       <c r="E404">
-        <f>COUNTIF($E$2:$E$357,C404)</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2006</v>
       </c>
@@ -14637,19 +14658,19 @@
         <v>7</v>
       </c>
       <c r="C405">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200607</v>
       </c>
       <c r="D405" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37437</v>
       </c>
       <c r="E405">
-        <f>COUNTIF($E$2:$E$357,C405)</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2006</v>
       </c>
@@ -14657,19 +14678,19 @@
         <v>8</v>
       </c>
       <c r="C406">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200608</v>
       </c>
       <c r="D406" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37468</v>
       </c>
       <c r="E406">
-        <f>COUNTIF($E$2:$E$357,C406)</f>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2006</v>
       </c>
@@ -14677,19 +14698,19 @@
         <v>9</v>
       </c>
       <c r="C407">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200609</v>
       </c>
       <c r="D407" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37499</v>
       </c>
       <c r="E407">
-        <f>COUNTIF($E$2:$E$357,C407)</f>
+        <f t="shared" ref="E407:E438" si="40">COUNTIF($E$2:$E$357,C407)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2006</v>
       </c>
@@ -14697,19 +14718,19 @@
         <v>10</v>
       </c>
       <c r="C408">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200610</v>
       </c>
       <c r="D408" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37529</v>
       </c>
       <c r="E408">
-        <f>COUNTIF($E$2:$E$357,C408)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2006</v>
       </c>
@@ -14717,19 +14738,19 @@
         <v>11</v>
       </c>
       <c r="C409">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200611</v>
       </c>
       <c r="D409" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37560</v>
       </c>
       <c r="E409">
-        <f>COUNTIF($E$2:$E$357,C409)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2006</v>
       </c>
@@ -14737,19 +14758,19 @@
         <v>12</v>
       </c>
       <c r="C410">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200612</v>
       </c>
       <c r="D410" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37590</v>
       </c>
       <c r="E410">
-        <f>COUNTIF($E$2:$E$357,C410)</f>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2007</v>
       </c>
@@ -14757,19 +14778,19 @@
         <v>1</v>
       </c>
       <c r="C411">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200701</v>
       </c>
       <c r="D411" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37621</v>
       </c>
       <c r="E411">
-        <f>COUNTIF($E$2:$E$357,C411)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2007</v>
       </c>
@@ -14777,19 +14798,19 @@
         <v>2</v>
       </c>
       <c r="C412">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200702</v>
       </c>
       <c r="D412" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37652</v>
       </c>
       <c r="E412">
-        <f>COUNTIF($E$2:$E$357,C412)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2007</v>
       </c>
@@ -14797,19 +14818,19 @@
         <v>3</v>
       </c>
       <c r="C413">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200703</v>
       </c>
       <c r="D413" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37680</v>
       </c>
       <c r="E413">
-        <f>COUNTIF($E$2:$E$357,C413)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2007</v>
       </c>
@@ -14817,19 +14838,19 @@
         <v>4</v>
       </c>
       <c r="C414">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200704</v>
       </c>
       <c r="D414" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37711</v>
       </c>
       <c r="E414">
-        <f>COUNTIF($E$2:$E$357,C414)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2007</v>
       </c>
@@ -14837,19 +14858,19 @@
         <v>5</v>
       </c>
       <c r="C415">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200705</v>
       </c>
       <c r="D415" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37741</v>
       </c>
       <c r="E415">
-        <f>COUNTIF($E$2:$E$357,C415)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2007</v>
       </c>
@@ -14857,19 +14878,19 @@
         <v>6</v>
       </c>
       <c r="C416">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200706</v>
       </c>
       <c r="D416" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37772</v>
       </c>
       <c r="E416">
-        <f>COUNTIF($E$2:$E$357,C416)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2007</v>
       </c>
@@ -14877,19 +14898,19 @@
         <v>7</v>
       </c>
       <c r="C417">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200707</v>
       </c>
       <c r="D417" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37802</v>
       </c>
       <c r="E417">
-        <f>COUNTIF($E$2:$E$357,C417)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2007</v>
       </c>
@@ -14897,19 +14918,19 @@
         <v>8</v>
       </c>
       <c r="C418">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200708</v>
       </c>
       <c r="D418" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37833</v>
       </c>
       <c r="E418">
-        <f>COUNTIF($E$2:$E$357,C418)</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2007</v>
       </c>
@@ -14917,19 +14938,19 @@
         <v>9</v>
       </c>
       <c r="C419">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200709</v>
       </c>
       <c r="D419" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37864</v>
       </c>
       <c r="E419">
-        <f>COUNTIF($E$2:$E$357,C419)</f>
+        <f t="shared" si="40"/>
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2007</v>
       </c>
@@ -14937,19 +14958,19 @@
         <v>10</v>
       </c>
       <c r="C420">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200710</v>
       </c>
       <c r="D420" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37894</v>
       </c>
       <c r="E420">
-        <f>COUNTIF($E$2:$E$357,C420)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2007</v>
       </c>
@@ -14957,19 +14978,19 @@
         <v>11</v>
       </c>
       <c r="C421">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200711</v>
       </c>
       <c r="D421" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37925</v>
       </c>
       <c r="E421">
-        <f>COUNTIF($E$2:$E$357,C421)</f>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2007</v>
       </c>
@@ -14977,19 +14998,19 @@
         <v>12</v>
       </c>
       <c r="C422">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200712</v>
       </c>
       <c r="D422" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37955</v>
       </c>
       <c r="E422">
-        <f>COUNTIF($E$2:$E$357,C422)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2008</v>
       </c>
@@ -14997,19 +15018,19 @@
         <v>1</v>
       </c>
       <c r="C423">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200801</v>
       </c>
       <c r="D423" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>37986</v>
       </c>
       <c r="E423">
-        <f>COUNTIF($E$2:$E$357,C423)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2008</v>
       </c>
@@ -15017,19 +15038,19 @@
         <v>2</v>
       </c>
       <c r="C424">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200802</v>
       </c>
       <c r="D424" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38017</v>
       </c>
       <c r="E424">
-        <f>COUNTIF($E$2:$E$357,C424)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2008</v>
       </c>
@@ -15037,19 +15058,19 @@
         <v>3</v>
       </c>
       <c r="C425">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200803</v>
       </c>
       <c r="D425" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38046</v>
       </c>
       <c r="E425">
-        <f>COUNTIF($E$2:$E$357,C425)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2008</v>
       </c>
@@ -15057,19 +15078,19 @@
         <v>4</v>
       </c>
       <c r="C426">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200804</v>
       </c>
       <c r="D426" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38077</v>
       </c>
       <c r="E426">
-        <f>COUNTIF($E$2:$E$357,C426)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2008</v>
       </c>
@@ -15077,19 +15098,19 @@
         <v>5</v>
       </c>
       <c r="C427">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200805</v>
       </c>
       <c r="D427" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38107</v>
       </c>
       <c r="E427">
-        <f>COUNTIF($E$2:$E$357,C427)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2008</v>
       </c>
@@ -15097,19 +15118,19 @@
         <v>6</v>
       </c>
       <c r="C428">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200806</v>
       </c>
       <c r="D428" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38138</v>
       </c>
       <c r="E428">
-        <f>COUNTIF($E$2:$E$357,C428)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2008</v>
       </c>
@@ -15117,19 +15138,19 @@
         <v>7</v>
       </c>
       <c r="C429">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200807</v>
       </c>
       <c r="D429" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38168</v>
       </c>
       <c r="E429">
-        <f>COUNTIF($E$2:$E$357,C429)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2008</v>
       </c>
@@ -15137,19 +15158,19 @@
         <v>8</v>
       </c>
       <c r="C430">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200808</v>
       </c>
       <c r="D430" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38199</v>
       </c>
       <c r="E430">
-        <f>COUNTIF($E$2:$E$357,C430)</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2008</v>
       </c>
@@ -15157,19 +15178,19 @@
         <v>9</v>
       </c>
       <c r="C431">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200809</v>
       </c>
       <c r="D431" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38230</v>
       </c>
       <c r="E431">
-        <f>COUNTIF($E$2:$E$357,C431)</f>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2008</v>
       </c>
@@ -15177,19 +15198,19 @@
         <v>10</v>
       </c>
       <c r="C432">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200810</v>
       </c>
       <c r="D432" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38260</v>
       </c>
       <c r="E432">
-        <f>COUNTIF($E$2:$E$357,C432)</f>
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2008</v>
       </c>
@@ -15197,19 +15218,19 @@
         <v>11</v>
       </c>
       <c r="C433">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200811</v>
       </c>
       <c r="D433" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38291</v>
       </c>
       <c r="E433">
-        <f>COUNTIF($E$2:$E$357,C433)</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2008</v>
       </c>
@@ -15217,19 +15238,19 @@
         <v>12</v>
       </c>
       <c r="C434">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200812</v>
       </c>
       <c r="D434" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38321</v>
       </c>
       <c r="E434">
-        <f>COUNTIF($E$2:$E$357,C434)</f>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2009</v>
       </c>
@@ -15237,19 +15258,19 @@
         <v>1</v>
       </c>
       <c r="C435">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200901</v>
       </c>
       <c r="D435" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38352</v>
       </c>
       <c r="E435">
-        <f>COUNTIF($E$2:$E$357,C435)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2009</v>
       </c>
@@ -15257,19 +15278,19 @@
         <v>2</v>
       </c>
       <c r="C436">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200902</v>
       </c>
       <c r="D436" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38383</v>
       </c>
       <c r="E436">
-        <f>COUNTIF($E$2:$E$357,C436)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2009</v>
       </c>
@@ -15277,19 +15298,19 @@
         <v>3</v>
       </c>
       <c r="C437">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200903</v>
       </c>
       <c r="D437" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38411</v>
       </c>
       <c r="E437">
-        <f>COUNTIF($E$2:$E$357,C437)</f>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2009</v>
       </c>
@@ -15297,19 +15318,19 @@
         <v>4</v>
       </c>
       <c r="C438">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200904</v>
       </c>
       <c r="D438" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38442</v>
       </c>
       <c r="E438">
-        <f>COUNTIF($E$2:$E$357,C438)</f>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2009</v>
       </c>
@@ -15317,19 +15338,19 @@
         <v>5</v>
       </c>
       <c r="C439">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>200905</v>
       </c>
       <c r="D439" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>38472</v>
       </c>
       <c r="E439">
-        <f>COUNTIF($E$2:$E$357,C439)</f>
+        <f t="shared" ref="E439:E470" si="41">COUNTIF($E$2:$E$357,C439)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2009</v>
       </c>
@@ -15337,19 +15358,19 @@
         <v>6</v>
       </c>
       <c r="C440">
-        <f t="shared" ref="C440:C494" si="37">A440*100+B440</f>
+        <f t="shared" ref="C440:C494" si="42">A440*100+B440</f>
         <v>200906</v>
       </c>
       <c r="D440" s="1">
-        <f t="shared" ref="D440:D494" si="38">DATE(A440,B440,1)</f>
+        <f t="shared" ref="D440:D494" si="43">DATE(A440,B440,1)</f>
         <v>38503</v>
       </c>
       <c r="E440">
-        <f>COUNTIF($E$2:$E$357,C440)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2009</v>
       </c>
@@ -15357,19 +15378,19 @@
         <v>7</v>
       </c>
       <c r="C441">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200907</v>
       </c>
       <c r="D441" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38533</v>
       </c>
       <c r="E441">
-        <f>COUNTIF($E$2:$E$357,C441)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2009</v>
       </c>
@@ -15377,19 +15398,19 @@
         <v>8</v>
       </c>
       <c r="C442">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200908</v>
       </c>
       <c r="D442" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38564</v>
       </c>
       <c r="E442">
-        <f>COUNTIF($E$2:$E$357,C442)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2009</v>
       </c>
@@ -15397,19 +15418,19 @@
         <v>9</v>
       </c>
       <c r="C443">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200909</v>
       </c>
       <c r="D443" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38595</v>
       </c>
       <c r="E443">
-        <f>COUNTIF($E$2:$E$357,C443)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2009</v>
       </c>
@@ -15417,19 +15438,19 @@
         <v>10</v>
       </c>
       <c r="C444">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200910</v>
       </c>
       <c r="D444" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38625</v>
       </c>
       <c r="E444">
-        <f>COUNTIF($E$2:$E$357,C444)</f>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2009</v>
       </c>
@@ -15437,19 +15458,19 @@
         <v>11</v>
       </c>
       <c r="C445">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200911</v>
       </c>
       <c r="D445" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38656</v>
       </c>
       <c r="E445">
-        <f>COUNTIF($E$2:$E$357,C445)</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2009</v>
       </c>
@@ -15457,19 +15478,19 @@
         <v>12</v>
       </c>
       <c r="C446">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>200912</v>
       </c>
       <c r="D446" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38686</v>
       </c>
       <c r="E446">
-        <f>COUNTIF($E$2:$E$357,C446)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2010</v>
       </c>
@@ -15477,19 +15498,19 @@
         <v>1</v>
       </c>
       <c r="C447">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201001</v>
       </c>
       <c r="D447" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38717</v>
       </c>
       <c r="E447">
-        <f>COUNTIF($E$2:$E$357,C447)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2010</v>
       </c>
@@ -15497,19 +15518,19 @@
         <v>2</v>
       </c>
       <c r="C448">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201002</v>
       </c>
       <c r="D448" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38748</v>
       </c>
       <c r="E448">
-        <f>COUNTIF($E$2:$E$357,C448)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2010</v>
       </c>
@@ -15517,19 +15538,19 @@
         <v>3</v>
       </c>
       <c r="C449">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201003</v>
       </c>
       <c r="D449" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38776</v>
       </c>
       <c r="E449">
-        <f>COUNTIF($E$2:$E$357,C449)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2010</v>
       </c>
@@ -15537,19 +15558,19 @@
         <v>4</v>
       </c>
       <c r="C450">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201004</v>
       </c>
       <c r="D450" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38807</v>
       </c>
       <c r="E450">
-        <f>COUNTIF($E$2:$E$357,C450)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2010</v>
       </c>
@@ -15557,19 +15578,19 @@
         <v>5</v>
       </c>
       <c r="C451">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201005</v>
       </c>
       <c r="D451" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38837</v>
       </c>
       <c r="E451">
-        <f>COUNTIF($E$2:$E$357,C451)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2010</v>
       </c>
@@ -15577,19 +15598,19 @@
         <v>6</v>
       </c>
       <c r="C452">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201006</v>
       </c>
       <c r="D452" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38868</v>
       </c>
       <c r="E452">
-        <f>COUNTIF($E$2:$E$357,C452)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2010</v>
       </c>
@@ -15597,19 +15618,19 @@
         <v>7</v>
       </c>
       <c r="C453">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201007</v>
       </c>
       <c r="D453" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38898</v>
       </c>
       <c r="E453">
-        <f>COUNTIF($E$2:$E$357,C453)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2010</v>
       </c>
@@ -15617,19 +15638,19 @@
         <v>8</v>
       </c>
       <c r="C454">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201008</v>
       </c>
       <c r="D454" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38929</v>
       </c>
       <c r="E454">
-        <f>COUNTIF($E$2:$E$357,C454)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2010</v>
       </c>
@@ -15637,19 +15658,19 @@
         <v>9</v>
       </c>
       <c r="C455">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201009</v>
       </c>
       <c r="D455" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38960</v>
       </c>
       <c r="E455">
-        <f>COUNTIF($E$2:$E$357,C455)</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2010</v>
       </c>
@@ -15657,19 +15678,19 @@
         <v>10</v>
       </c>
       <c r="C456">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201010</v>
       </c>
       <c r="D456" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>38990</v>
       </c>
       <c r="E456">
-        <f>COUNTIF($E$2:$E$357,C456)</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2010</v>
       </c>
@@ -15677,19 +15698,19 @@
         <v>11</v>
       </c>
       <c r="C457">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201011</v>
       </c>
       <c r="D457" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39021</v>
       </c>
       <c r="E457">
-        <f>COUNTIF($E$2:$E$357,C457)</f>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2010</v>
       </c>
@@ -15697,19 +15718,19 @@
         <v>12</v>
       </c>
       <c r="C458">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201012</v>
       </c>
       <c r="D458" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39051</v>
       </c>
       <c r="E458">
-        <f>COUNTIF($E$2:$E$357,C458)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2011</v>
       </c>
@@ -15717,19 +15738,19 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201101</v>
       </c>
       <c r="D459" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39082</v>
       </c>
       <c r="E459">
-        <f>COUNTIF($E$2:$E$357,C459)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2011</v>
       </c>
@@ -15737,19 +15758,19 @@
         <v>2</v>
       </c>
       <c r="C460">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201102</v>
       </c>
       <c r="D460" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39113</v>
       </c>
       <c r="E460">
-        <f>COUNTIF($E$2:$E$357,C460)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2011</v>
       </c>
@@ -15757,19 +15778,19 @@
         <v>3</v>
       </c>
       <c r="C461">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201103</v>
       </c>
       <c r="D461" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39141</v>
       </c>
       <c r="E461">
-        <f>COUNTIF($E$2:$E$357,C461)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2011</v>
       </c>
@@ -15777,19 +15798,19 @@
         <v>4</v>
       </c>
       <c r="C462">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201104</v>
       </c>
       <c r="D462" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39172</v>
       </c>
       <c r="E462">
-        <f>COUNTIF($E$2:$E$357,C462)</f>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2011</v>
       </c>
@@ -15797,19 +15818,19 @@
         <v>5</v>
       </c>
       <c r="C463">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201105</v>
       </c>
       <c r="D463" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39202</v>
       </c>
       <c r="E463">
-        <f>COUNTIF($E$2:$E$357,C463)</f>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2011</v>
       </c>
@@ -15817,19 +15838,19 @@
         <v>6</v>
       </c>
       <c r="C464">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201106</v>
       </c>
       <c r="D464" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39233</v>
       </c>
       <c r="E464">
-        <f>COUNTIF($E$2:$E$357,C464)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2011</v>
       </c>
@@ -15837,19 +15858,19 @@
         <v>7</v>
       </c>
       <c r="C465">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201107</v>
       </c>
       <c r="D465" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39263</v>
       </c>
       <c r="E465">
-        <f>COUNTIF($E$2:$E$357,C465)</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2011</v>
       </c>
@@ -15857,19 +15878,19 @@
         <v>8</v>
       </c>
       <c r="C466">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201108</v>
       </c>
       <c r="D466" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39294</v>
       </c>
       <c r="E466">
-        <f>COUNTIF($E$2:$E$357,C466)</f>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2011</v>
       </c>
@@ -15877,19 +15898,19 @@
         <v>9</v>
       </c>
       <c r="C467">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201109</v>
       </c>
       <c r="D467" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39325</v>
       </c>
       <c r="E467">
-        <f>COUNTIF($E$2:$E$357,C467)</f>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2011</v>
       </c>
@@ -15897,19 +15918,19 @@
         <v>10</v>
       </c>
       <c r="C468">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201110</v>
       </c>
       <c r="D468" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39355</v>
       </c>
       <c r="E468">
-        <f>COUNTIF($E$2:$E$357,C468)</f>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2011</v>
       </c>
@@ -15917,19 +15938,19 @@
         <v>11</v>
       </c>
       <c r="C469">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201111</v>
       </c>
       <c r="D469" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39386</v>
       </c>
       <c r="E469">
-        <f>COUNTIF($E$2:$E$357,C469)</f>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2011</v>
       </c>
@@ -15937,19 +15958,19 @@
         <v>12</v>
       </c>
       <c r="C470">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201112</v>
       </c>
       <c r="D470" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39416</v>
       </c>
       <c r="E470">
-        <f>COUNTIF($E$2:$E$357,C470)</f>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2012</v>
       </c>
@@ -15957,19 +15978,19 @@
         <v>1</v>
       </c>
       <c r="C471">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201201</v>
       </c>
       <c r="D471" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39447</v>
       </c>
       <c r="E471">
-        <f>COUNTIF($E$2:$E$357,C471)</f>
+        <f t="shared" ref="E471:E494" si="44">COUNTIF($E$2:$E$357,C471)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2012</v>
       </c>
@@ -15977,19 +15998,19 @@
         <v>2</v>
       </c>
       <c r="C472">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201202</v>
       </c>
       <c r="D472" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39478</v>
       </c>
       <c r="E472">
-        <f>COUNTIF($E$2:$E$357,C472)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2012</v>
       </c>
@@ -15997,19 +16018,19 @@
         <v>3</v>
       </c>
       <c r="C473">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201203</v>
       </c>
       <c r="D473" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39507</v>
       </c>
       <c r="E473">
-        <f>COUNTIF($E$2:$E$357,C473)</f>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2012</v>
       </c>
@@ -16017,19 +16038,19 @@
         <v>4</v>
       </c>
       <c r="C474">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201204</v>
       </c>
       <c r="D474" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39538</v>
       </c>
       <c r="E474">
-        <f>COUNTIF($E$2:$E$357,C474)</f>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2012</v>
       </c>
@@ -16037,19 +16058,19 @@
         <v>5</v>
       </c>
       <c r="C475">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201205</v>
       </c>
       <c r="D475" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39568</v>
       </c>
       <c r="E475">
-        <f>COUNTIF($E$2:$E$357,C475)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2012</v>
       </c>
@@ -16057,19 +16078,19 @@
         <v>6</v>
       </c>
       <c r="C476">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201206</v>
       </c>
       <c r="D476" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39599</v>
       </c>
       <c r="E476">
-        <f>COUNTIF($E$2:$E$357,C476)</f>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2012</v>
       </c>
@@ -16077,19 +16098,19 @@
         <v>7</v>
       </c>
       <c r="C477">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201207</v>
       </c>
       <c r="D477" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39629</v>
       </c>
       <c r="E477">
-        <f>COUNTIF($E$2:$E$357,C477)</f>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2012</v>
       </c>
@@ -16097,19 +16118,19 @@
         <v>8</v>
       </c>
       <c r="C478">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201208</v>
       </c>
       <c r="D478" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39660</v>
       </c>
       <c r="E478">
-        <f>COUNTIF($E$2:$E$357,C478)</f>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2012</v>
       </c>
@@ -16117,19 +16138,19 @@
         <v>9</v>
       </c>
       <c r="C479">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201209</v>
       </c>
       <c r="D479" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39691</v>
       </c>
       <c r="E479">
-        <f>COUNTIF($E$2:$E$357,C479)</f>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2012</v>
       </c>
@@ -16137,19 +16158,19 @@
         <v>10</v>
       </c>
       <c r="C480">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201210</v>
       </c>
       <c r="D480" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39721</v>
       </c>
       <c r="E480">
-        <f>COUNTIF($E$2:$E$357,C480)</f>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2012</v>
       </c>
@@ -16157,19 +16178,19 @@
         <v>11</v>
       </c>
       <c r="C481">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201211</v>
       </c>
       <c r="D481" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39752</v>
       </c>
       <c r="E481">
-        <f>COUNTIF($E$2:$E$357,C481)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2012</v>
       </c>
@@ -16177,19 +16198,19 @@
         <v>12</v>
       </c>
       <c r="C482">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201212</v>
       </c>
       <c r="D482" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39782</v>
       </c>
       <c r="E482">
-        <f>COUNTIF($E$2:$E$357,C482)</f>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2013</v>
       </c>
@@ -16197,19 +16218,19 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201301</v>
       </c>
       <c r="D483" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39813</v>
       </c>
       <c r="E483">
-        <f>COUNTIF($E$2:$E$357,C483)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2013</v>
       </c>
@@ -16217,19 +16238,19 @@
         <v>2</v>
       </c>
       <c r="C484">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201302</v>
       </c>
       <c r="D484" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39844</v>
       </c>
       <c r="E484">
-        <f>COUNTIF($E$2:$E$357,C484)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2013</v>
       </c>
@@ -16237,19 +16258,23 @@
         <v>3</v>
       </c>
       <c r="C485">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201303</v>
       </c>
       <c r="D485" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39872</v>
       </c>
       <c r="E485">
-        <f>COUNTIF($E$2:$E$357,C485)</f>
+        <f t="shared" si="44"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="M485">
+        <f>365.24*3</f>
+        <v>1095.72</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2013</v>
       </c>
@@ -16257,19 +16282,19 @@
         <v>4</v>
       </c>
       <c r="C486">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201304</v>
       </c>
       <c r="D486" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39903</v>
       </c>
       <c r="E486">
-        <f>COUNTIF($E$2:$E$357,C486)</f>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2013</v>
       </c>
@@ -16277,19 +16302,19 @@
         <v>5</v>
       </c>
       <c r="C487">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201305</v>
       </c>
       <c r="D487" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39933</v>
       </c>
       <c r="E487">
-        <f>COUNTIF($E$2:$E$357,C487)</f>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2013</v>
       </c>
@@ -16297,19 +16322,19 @@
         <v>6</v>
       </c>
       <c r="C488">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201306</v>
       </c>
       <c r="D488" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39964</v>
       </c>
       <c r="E488">
-        <f>COUNTIF($E$2:$E$357,C488)</f>
+        <f t="shared" si="44"/>
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2013</v>
       </c>
@@ -16317,19 +16342,19 @@
         <v>7</v>
       </c>
       <c r="C489">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201307</v>
       </c>
       <c r="D489" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>39994</v>
       </c>
       <c r="E489">
-        <f>COUNTIF($E$2:$E$357,C489)</f>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2013</v>
       </c>
@@ -16337,19 +16362,19 @@
         <v>8</v>
       </c>
       <c r="C490">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201308</v>
       </c>
       <c r="D490" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>40025</v>
       </c>
       <c r="E490">
-        <f>COUNTIF($E$2:$E$357,C490)</f>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2013</v>
       </c>
@@ -16357,19 +16382,19 @@
         <v>9</v>
       </c>
       <c r="C491">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201309</v>
       </c>
       <c r="D491" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>40056</v>
       </c>
       <c r="E491">
-        <f>COUNTIF($E$2:$E$357,C491)</f>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2013</v>
       </c>
@@ -16377,19 +16402,19 @@
         <v>10</v>
       </c>
       <c r="C492">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201310</v>
       </c>
       <c r="D492" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>40086</v>
       </c>
       <c r="E492">
-        <f>COUNTIF($E$2:$E$357,C492)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2013</v>
       </c>
@@ -16397,19 +16422,19 @@
         <v>11</v>
       </c>
       <c r="C493">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201311</v>
       </c>
       <c r="D493" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>40117</v>
       </c>
       <c r="E493">
-        <f>COUNTIF($E$2:$E$357,C493)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2013</v>
       </c>
@@ -16417,15 +16442,15 @@
         <v>12</v>
       </c>
       <c r="C494">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>201312</v>
       </c>
       <c r="D494" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>40147</v>
       </c>
       <c r="E494">
-        <f>COUNTIF($E$2:$E$357,C494)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
